--- a/output.xlsx
+++ b/output.xlsx
@@ -574,7 +574,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Gerard Moreno</t>
+          <t>Lacazette</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -600,17 +600,17 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>France</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>LALIGA EA SPORTS</t>
+          <t>Ligue 1 Uber Eats</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Villarreal CF</t>
+          <t>OL</t>
         </is>
       </c>
       <c r="J3" t="b">
@@ -629,17 +629,17 @@
         <v>900</v>
       </c>
       <c r="O3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>González</t>
+          <t>Savanier</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -648,30 +648,30 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>Rare</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>LW</t>
+          <t>CAM</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>France</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Serie A TIM</t>
+          <t>Ligue 1 Uber Eats</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>Montpellier</t>
         </is>
       </c>
       <c r="J4" t="b">
@@ -687,16 +687,16 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Savanier</t>
+          <t>Charles</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -709,12 +709,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Rare</t>
+          <t>Common</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>CAM</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -722,17 +722,17 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>England</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Ligue 1 Uber Eats</t>
+          <t>Barclays WSL</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Montpellier</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="J5" t="b">
@@ -748,16 +748,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="O5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Mandanda</t>
+          <t>José Sá</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -783,17 +783,17 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Ligue 1 Uber Eats</t>
+          <t>Premier League</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Stade Rennais FC</t>
+          <t>Wolves</t>
         </is>
       </c>
       <c r="J6" t="b">
@@ -809,10 +809,10 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="O6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -873,7 +873,7 @@
         <v>400</v>
       </c>
       <c r="O7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -1001,7 +1001,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Chalobah</t>
+          <t>Rodri</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>CAM</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -1027,17 +1027,17 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Premier League</t>
+          <t>LALIGA EA SPORTS</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Real Betis</t>
         </is>
       </c>
       <c r="J10" t="b">
@@ -1053,7 +1053,7 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="O10" t="n">
         <v>2</v>
@@ -1062,7 +1062,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Ferri</t>
+          <t>Chalobah</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -1080,7 +1080,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>CDM</t>
+          <t>CB</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -1088,17 +1088,17 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>England</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Ligue 1 Uber Eats</t>
+          <t>Premier League</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Montpellier</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="J11" t="b">
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="O11" t="n">
         <v>3</v>
@@ -1123,11 +1123,11 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Lascelles</t>
+          <t>Ferri</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1141,7 +1141,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>CB</t>
+          <t>CDM</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -1149,17 +1149,17 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>France</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Premier League</t>
+          <t>Ligue 1 Uber Eats</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Newcastle Utd</t>
+          <t>Montpellier</t>
         </is>
       </c>
       <c r="J12" t="b">
@@ -1175,10 +1175,10 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="O12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
